--- a/CEC_txt_to_xlsx/OUTPUTS/D30/CEC2017functions-D30__AGEO2real2_AA3.xlsx
+++ b/CEC_txt_to_xlsx/OUTPUTS/D30/CEC2017functions-D30__AGEO2real2_AA3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="19485" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -34,439 +34,445 @@
     <t>Std</t>
   </si>
   <si>
-    <t>5.16E+1</t>
-  </si>
-  <si>
-    <t>2.48E+5</t>
-  </si>
-  <si>
-    <t>1.16E+0</t>
-  </si>
-  <si>
-    <t>9.15E+1</t>
-  </si>
-  <si>
-    <t>5.09E-7</t>
-  </si>
-  <si>
-    <t>9.46E+1</t>
-  </si>
-  <si>
-    <t>7.46E+1</t>
+    <t>1.40E-3</t>
+  </si>
+  <si>
+    <t>3.90E+5</t>
+  </si>
+  <si>
+    <t>4.20E+3</t>
+  </si>
+  <si>
+    <t>2.13E+4</t>
+  </si>
+  <si>
+    <t>5.83E+4</t>
+  </si>
+  <si>
+    <t>1.79E+5</t>
+  </si>
+  <si>
+    <t>2.04E+7</t>
+  </si>
+  <si>
+    <t>9.46E+5</t>
+  </si>
+  <si>
+    <t>3.38E+6</t>
+  </si>
+  <si>
+    <t>5.31E+6</t>
+  </si>
+  <si>
+    <t>1.25E-1</t>
+  </si>
+  <si>
+    <t>1.16E+2</t>
+  </si>
+  <si>
+    <t>6.32E+1</t>
+  </si>
+  <si>
+    <t>4.72E+1</t>
+  </si>
+  <si>
+    <t>3.58E+1</t>
+  </si>
+  <si>
+    <t>6.47E+1</t>
+  </si>
+  <si>
+    <t>3.06E+2</t>
+  </si>
+  <si>
+    <t>1.53E+2</t>
+  </si>
+  <si>
+    <t>1.54E+2</t>
+  </si>
+  <si>
+    <t>4.42E+1</t>
+  </si>
+  <si>
+    <t>5.23E-7</t>
+  </si>
+  <si>
+    <t>6.45E-7</t>
+  </si>
+  <si>
+    <t>5.92E-7</t>
+  </si>
+  <si>
+    <t>5.93E-7</t>
+  </si>
+  <si>
+    <t>2.75E-8</t>
+  </si>
+  <si>
+    <t>1.10E+2</t>
+  </si>
+  <si>
+    <t>2.64E+2</t>
+  </si>
+  <si>
+    <t>1.70E+2</t>
+  </si>
+  <si>
+    <t>1.75E+2</t>
+  </si>
+  <si>
+    <t>3.77E+1</t>
+  </si>
+  <si>
+    <t>7.86E+1</t>
+  </si>
+  <si>
+    <t>3.16E+2</t>
+  </si>
+  <si>
+    <t>1.67E+2</t>
+  </si>
+  <si>
+    <t>1.71E+2</t>
+  </si>
+  <si>
+    <t>4.63E+1</t>
+  </si>
+  <si>
+    <t>5.29E+2</t>
+  </si>
+  <si>
+    <t>2.01E+4</t>
+  </si>
+  <si>
+    <t>4.44E+3</t>
+  </si>
+  <si>
+    <t>4.98E+3</t>
+  </si>
+  <si>
+    <t>3.88E+3</t>
+  </si>
+  <si>
+    <t>1.88E+3</t>
+  </si>
+  <si>
+    <t>4.63E+3</t>
+  </si>
+  <si>
+    <t>3.56E+3</t>
+  </si>
+  <si>
+    <t>3.44E+3</t>
+  </si>
+  <si>
+    <t>6.22E+2</t>
+  </si>
+  <si>
+    <t>3.59E+1</t>
+  </si>
+  <si>
+    <t>2.92E+2</t>
+  </si>
+  <si>
+    <t>1.09E+2</t>
+  </si>
+  <si>
+    <t>1.17E+2</t>
+  </si>
+  <si>
+    <t>6.07E+1</t>
+  </si>
+  <si>
+    <t>1.54E+6</t>
+  </si>
+  <si>
+    <t>9.14E+7</t>
+  </si>
+  <si>
+    <t>1.32E+7</t>
+  </si>
+  <si>
+    <t>1.95E+7</t>
+  </si>
+  <si>
+    <t>1.94E+7</t>
+  </si>
+  <si>
+    <t>1.25E+2</t>
+  </si>
+  <si>
+    <t>1.31E+6</t>
+  </si>
+  <si>
+    <t>2.98E+4</t>
+  </si>
+  <si>
+    <t>6.95E+4</t>
+  </si>
+  <si>
+    <t>1.83E+5</t>
+  </si>
+  <si>
+    <t>8.77E+3</t>
+  </si>
+  <si>
+    <t>8.53E+6</t>
+  </si>
+  <si>
+    <t>5.58E+5</t>
+  </si>
+  <si>
+    <t>1.46E+6</t>
+  </si>
+  <si>
+    <t>2.18E+6</t>
+  </si>
+  <si>
+    <t>5.40E+1</t>
+  </si>
+  <si>
+    <t>5.02E+5</t>
+  </si>
+  <si>
+    <t>8.40E+3</t>
+  </si>
+  <si>
+    <t>3.74E+4</t>
+  </si>
+  <si>
+    <t>8.65E+4</t>
+  </si>
+  <si>
+    <t>4.62E+2</t>
+  </si>
+  <si>
+    <t>2.18E+3</t>
+  </si>
+  <si>
+    <t>1.40E+3</t>
+  </si>
+  <si>
+    <t>1.39E+3</t>
+  </si>
+  <si>
+    <t>3.90E+2</t>
+  </si>
+  <si>
+    <t>3.26E+2</t>
+  </si>
+  <si>
+    <t>1.30E+3</t>
+  </si>
+  <si>
+    <t>7.84E+2</t>
+  </si>
+  <si>
+    <t>8.15E+2</t>
+  </si>
+  <si>
+    <t>2.95E+5</t>
+  </si>
+  <si>
+    <t>2.20E+7</t>
+  </si>
+  <si>
+    <t>3.77E+6</t>
+  </si>
+  <si>
+    <t>4.94E+6</t>
+  </si>
+  <si>
+    <t>4.81E+6</t>
+  </si>
+  <si>
+    <t>3.13E+1</t>
+  </si>
+  <si>
+    <t>2.09E+5</t>
+  </si>
+  <si>
+    <t>8.98E+3</t>
+  </si>
+  <si>
+    <t>2.43E+4</t>
+  </si>
+  <si>
+    <t>3.84E+4</t>
+  </si>
+  <si>
+    <t>2.57E+2</t>
+  </si>
+  <si>
+    <t>1.53E+3</t>
+  </si>
+  <si>
+    <t>8.56E+2</t>
+  </si>
+  <si>
+    <t>8.36E+2</t>
+  </si>
+  <si>
+    <t>2.72E+2</t>
+  </si>
+  <si>
+    <t>2.98E+2</t>
+  </si>
+  <si>
+    <t>4.55E+2</t>
+  </si>
+  <si>
+    <t>3.57E+2</t>
+  </si>
+  <si>
+    <t>3.60E+2</t>
+  </si>
+  <si>
+    <t>4.29E+1</t>
+  </si>
+  <si>
+    <t>1.00E+2</t>
+  </si>
+  <si>
+    <t>5.57E+3</t>
+  </si>
+  <si>
+    <t>4.28E+3</t>
+  </si>
+  <si>
+    <t>4.21E+3</t>
+  </si>
+  <si>
+    <t>8.77E+2</t>
+  </si>
+  <si>
+    <t>4.44E+2</t>
+  </si>
+  <si>
+    <t>6.21E+2</t>
+  </si>
+  <si>
+    <t>5.11E+2</t>
+  </si>
+  <si>
+    <t>5.17E+2</t>
+  </si>
+  <si>
+    <t>4.07E+1</t>
+  </si>
+  <si>
+    <t>5.12E+2</t>
+  </si>
+  <si>
+    <t>8.33E+2</t>
+  </si>
+  <si>
+    <t>6.09E+2</t>
   </si>
   <si>
     <t>6.25E+2</t>
   </si>
   <si>
-    <t>2.53E+3</t>
-  </si>
-  <si>
-    <t>8.88E+1</t>
-  </si>
-  <si>
-    <t>2.64E+6</t>
-  </si>
-  <si>
-    <t>1.67E+2</t>
-  </si>
-  <si>
-    <t>1.04E+5</t>
-  </si>
-  <si>
-    <t>4.27E+1</t>
-  </si>
-  <si>
-    <t>9.29E+2</t>
-  </si>
-  <si>
-    <t>2.04E+2</t>
-  </si>
-  <si>
-    <t>6.79E+5</t>
-  </si>
-  <si>
-    <t>2.19E+2</t>
-  </si>
-  <si>
-    <t>3.10E+2</t>
-  </si>
-  <si>
-    <t>1.00E+2</t>
-  </si>
-  <si>
-    <t>4.25E+2</t>
-  </si>
-  <si>
-    <t>5.47E+2</t>
+    <t>7.58E+1</t>
   </si>
   <si>
     <t>3.84E+2</t>
   </si>
   <si>
-    <t>2.00E+2</t>
-  </si>
-  <si>
-    <t>5.12E+2</t>
+    <t>4.28E+2</t>
+  </si>
+  <si>
+    <t>3.89E+2</t>
+  </si>
+  <si>
+    <t>3.94E+2</t>
+  </si>
+  <si>
+    <t>1.24E+1</t>
   </si>
   <si>
     <t>3.00E+2</t>
   </si>
   <si>
-    <t>7.75E+2</t>
-  </si>
-  <si>
-    <t>3.14E+3</t>
-  </si>
-  <si>
-    <t>4.57E+5</t>
-  </si>
-  <si>
-    <t>2.29E+7</t>
-  </si>
-  <si>
-    <t>1.34E+2</t>
-  </si>
-  <si>
-    <t>2.61E+2</t>
-  </si>
-  <si>
-    <t>7.08E-7</t>
-  </si>
-  <si>
-    <t>2.50E+2</t>
-  </si>
-  <si>
-    <t>2.84E+2</t>
-  </si>
-  <si>
-    <t>3.64E+4</t>
-  </si>
-  <si>
-    <t>5.24E+3</t>
-  </si>
-  <si>
-    <t>4.57E+4</t>
-  </si>
-  <si>
-    <t>1.42E+8</t>
-  </si>
-  <si>
-    <t>5.47E+5</t>
-  </si>
-  <si>
-    <t>1.51E+7</t>
-  </si>
-  <si>
-    <t>1.98E+5</t>
-  </si>
-  <si>
-    <t>2.30E+3</t>
-  </si>
-  <si>
-    <t>1.47E+3</t>
-  </si>
-  <si>
-    <t>5.53E+7</t>
-  </si>
-  <si>
-    <t>4.08E+5</t>
-  </si>
-  <si>
-    <t>1.52E+3</t>
-  </si>
-  <si>
-    <t>4.93E+2</t>
-  </si>
-  <si>
-    <t>5.87E+3</t>
-  </si>
-  <si>
-    <t>6.76E+2</t>
-  </si>
-  <si>
-    <t>8.56E+2</t>
-  </si>
-  <si>
-    <t>4.28E+2</t>
-  </si>
-  <si>
-    <t>5.35E+3</t>
-  </si>
-  <si>
-    <t>5.88E+2</t>
-  </si>
-  <si>
-    <t>4.58E+2</t>
+    <t>5.02E+3</t>
+  </si>
+  <si>
+    <t>3.09E+3</t>
   </si>
   <si>
     <t>3.08E+3</t>
   </si>
   <si>
-    <t>9.27E+4</t>
-  </si>
-  <si>
-    <t>7.83E+3</t>
-  </si>
-  <si>
-    <t>8.40E+5</t>
-  </si>
-  <si>
-    <t>8.69E+1</t>
-  </si>
-  <si>
-    <t>1.64E+2</t>
-  </si>
-  <si>
-    <t>6.41E-7</t>
-  </si>
-  <si>
-    <t>1.59E+2</t>
-  </si>
-  <si>
-    <t>1.74E+2</t>
-  </si>
-  <si>
-    <t>3.93E+3</t>
-  </si>
-  <si>
-    <t>3.71E+3</t>
-  </si>
-  <si>
-    <t>1.75E+3</t>
-  </si>
-  <si>
-    <t>2.36E+7</t>
+    <t>8.23E+2</t>
+  </si>
+  <si>
+    <t>5.15E+2</t>
+  </si>
+  <si>
+    <t>6.03E+2</t>
+  </si>
+  <si>
+    <t>5.42E+2</t>
+  </si>
+  <si>
+    <t>5.48E+2</t>
+  </si>
+  <si>
+    <t>2.13E+1</t>
+  </si>
+  <si>
+    <t>3.42E+2</t>
+  </si>
+  <si>
+    <t>5.94E+1</t>
+  </si>
+  <si>
+    <t>4.57E+2</t>
+  </si>
+  <si>
+    <t>1.77E+3</t>
+  </si>
+  <si>
+    <t>1.07E+3</t>
+  </si>
+  <si>
+    <t>1.09E+3</t>
+  </si>
+  <si>
+    <t>2.58E+2</t>
+  </si>
+  <si>
+    <t>2.32E+3</t>
+  </si>
+  <si>
+    <t>1.21E+5</t>
+  </si>
+  <si>
+    <t>1.38E+4</t>
   </si>
   <si>
     <t>1.95E+4</t>
   </si>
   <si>
-    <t>4.61E+6</t>
-  </si>
-  <si>
-    <t>1.59E+4</t>
-  </si>
-  <si>
-    <t>1.40E+3</t>
-  </si>
-  <si>
-    <t>8.14E+2</t>
-  </si>
-  <si>
-    <t>4.95E+6</t>
-  </si>
-  <si>
-    <t>1.33E+4</t>
-  </si>
-  <si>
-    <t>1.00E+3</t>
-  </si>
-  <si>
-    <t>3.67E+2</t>
-  </si>
-  <si>
-    <t>4.45E+3</t>
-  </si>
-  <si>
-    <t>5.01E+2</t>
-  </si>
-  <si>
-    <t>6.19E+2</t>
-  </si>
-  <si>
-    <t>3.89E+2</t>
-  </si>
-  <si>
-    <t>3.29E+3</t>
-  </si>
-  <si>
-    <t>5.46E+2</t>
-  </si>
-  <si>
-    <t>4.12E+2</t>
-  </si>
-  <si>
-    <t>1.11E+3</t>
-  </si>
-  <si>
-    <t>1.06E+4</t>
-  </si>
-  <si>
-    <t>2.92E+6</t>
-  </si>
-  <si>
-    <t>8.52E+1</t>
-  </si>
-  <si>
-    <t>1.60E+2</t>
-  </si>
-  <si>
-    <t>6.42E-7</t>
-  </si>
-  <si>
-    <t>1.66E+2</t>
-  </si>
-  <si>
-    <t>1.72E+2</t>
-  </si>
-  <si>
-    <t>5.94E+3</t>
-  </si>
-  <si>
-    <t>3.70E+3</t>
-  </si>
-  <si>
-    <t>5.25E+3</t>
-  </si>
-  <si>
-    <t>3.71E+7</t>
-  </si>
-  <si>
-    <t>6.20E+4</t>
-  </si>
-  <si>
-    <t>5.51E+6</t>
-  </si>
-  <si>
-    <t>4.09E+4</t>
-  </si>
-  <si>
-    <t>1.44E+3</t>
-  </si>
-  <si>
-    <t>8.26E+2</t>
-  </si>
-  <si>
-    <t>7.73E+6</t>
-  </si>
-  <si>
-    <t>3.54E+4</t>
-  </si>
-  <si>
-    <t>9.03E+2</t>
-  </si>
-  <si>
-    <t>3.76E+2</t>
-  </si>
-  <si>
-    <t>4.20E+3</t>
-  </si>
-  <si>
-    <t>5.04E+2</t>
-  </si>
-  <si>
-    <t>6.38E+2</t>
-  </si>
-  <si>
-    <t>3.94E+2</t>
-  </si>
-  <si>
-    <t>3.09E+3</t>
-  </si>
-  <si>
-    <t>4.10E+2</t>
-  </si>
-  <si>
-    <t>1.20E+3</t>
-  </si>
-  <si>
-    <t>2.18E+4</t>
-  </si>
-  <si>
-    <t>9.04E+4</t>
-  </si>
-  <si>
-    <t>5.07E+6</t>
-  </si>
-  <si>
-    <t>2.92E+1</t>
-  </si>
-  <si>
-    <t>4.51E+1</t>
-  </si>
-  <si>
-    <t>3.78E-8</t>
-  </si>
-  <si>
-    <t>4.34E+1</t>
-  </si>
-  <si>
-    <t>5.53E+1</t>
-  </si>
-  <si>
-    <t>6.70E+3</t>
-  </si>
-  <si>
-    <t>1.02E+4</t>
-  </si>
-  <si>
-    <t>3.47E+7</t>
-  </si>
-  <si>
-    <t>1.23E+5</t>
-  </si>
-  <si>
-    <t>4.63E+6</t>
-  </si>
-  <si>
-    <t>5.83E+4</t>
-  </si>
-  <si>
-    <t>3.22E+2</t>
-  </si>
-  <si>
-    <t>2.68E+2</t>
-  </si>
-  <si>
-    <t>1.08E+7</t>
-  </si>
-  <si>
-    <t>8.08E+4</t>
-  </si>
-  <si>
-    <t>3.44E+2</t>
-  </si>
-  <si>
-    <t>4.65E+1</t>
-  </si>
-  <si>
-    <t>1.29E+3</t>
-  </si>
-  <si>
-    <t>4.53E+1</t>
-  </si>
-  <si>
-    <t>7.76E+1</t>
-  </si>
-  <si>
-    <t>1.23E+1</t>
-  </si>
-  <si>
-    <t>1.07E+3</t>
-  </si>
-  <si>
-    <t>1.98E+1</t>
-  </si>
-  <si>
-    <t>5.06E+1</t>
-  </si>
-  <si>
-    <t>4.36E+2</t>
-  </si>
-  <si>
-    <t>2.28E+4</t>
+    <t>2.40E+4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,19 +480,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -509,9 +852,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -519,11 +1104,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -806,17 +1443,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -846,579 +1485,580 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
         <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>